--- a/biology/Botanique/Ardisia_bamendae/Ardisia_bamendae.xlsx
+++ b/biology/Botanique/Ardisia_bamendae/Ardisia_bamendae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardisia bamendae Cheek est une espèce de plantes à fleurs de la famille des Primulaceae et du genre Ardisia, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique bamendae fait référence aux Bamenda Highlands (en), les hauts-plateaux qui constituent le principal habitat de cette espèce[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique bamendae fait référence aux Bamenda Highlands (en), les hauts-plateaux qui constituent le principal habitat de cette espèce.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 2 m de hauteur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 2 m de hauteur.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Subendémique, l'espèce est présente principalement au nord-ouest du Cameroun, notamment au mont Oku, mais également au nord-est du Nigeria (Chappal Waddi[1]).
-Comme la plus grande partie des forêts d'origine a disparu et que la perte de l'habitat se poursuit, A. bamendae est considérée comme une « espèce en danger »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subendémique, l'espèce est présente principalement au nord-ouest du Cameroun, notamment au mont Oku, mais également au nord-est du Nigeria (Chappal Waddi).
+Comme la plus grande partie des forêts d'origine a disparu et que la perte de l'habitat se poursuit, A. bamendae est considérée comme une « espèce en danger ».
 </t>
         </is>
       </c>
